--- a/data/hotels_by_city/Dallas/Dallas_shard_484.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>markarcher2018</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r563281727-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>daundreas2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r586843583-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>Good service JR was very helpful and understanding, I'm thankful for all the great food and service that was provided. I'm greatful to have had an awesome stay and sleep very well, the room was clean and cozy</t>
   </si>
   <si>
+    <t>sherrills8621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r586843710-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t>Was extremely happy with this hotel.  We booked it online with the LaQuinta Application and received a remarkable price for the night.  The hotel itself was clean and modern.  The bed was amazing and we slept like babies.</t>
   </si>
   <si>
+    <t>aamcgarrah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r586292885-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Terry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r585994706-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t xml:space="preserve">Loved the beds and the friendly staff. Great location to Verizon center. Plenty of towels in the room for four people and two nights. The beds were very comfortable! I would highly recommend LaQuinta Inn. </t>
   </si>
   <si>
+    <t>beckyh190</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r584560070-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
     <t>Due to a very busy vacation with multiple hotels, I was extremely pleased with our stay at La Quinta. I honestly hadn’t stayed in one since the 1980’s so couldn’t believe the upgrade they’ve undergone.  It as much better than the expensive Doubletree I had stayed at the night before. I highly recommend it.</t>
   </si>
   <si>
+    <t>Y4853ZDbobg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r584260474-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>Was not the fault of the hotel but the A/C was out because of a pole repair. It was restored within an hour. Because of that the power was off and the phone system recorded message indicated the hotel was closed. My question was how can La Quinta reservations make a reservations at a hotel that was closed. when I called them back they were as confused as I. I finally went to the actual site and discovered  the problem. I would think that your system needs to fix that somehow. The clerks did not know what the recording was saying. They did think it was odd that the phone was not ringing. It is a beautiful hotel &amp; we have reservations to return on July 4th.More</t>
   </si>
   <si>
+    <t>Cristina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r583794121-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -315,6 +342,9 @@
     <t>We really enjoyed staying at this hotel!  The price was very reasonable and the location was amazing!  It's so close to Verizon Theater as well as the ballpark and other surrounding attractions.  The staff were super friendly, and the accommodations were so nice and clean.  So worth it!</t>
   </si>
   <si>
+    <t>T4132SYshannonp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r583794011-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>Arrived to discover electricity was off due to city maintenance 3:30 and was not back on until 6:00.  Then the elevators did not work.  Staff was at check in was uninformed and indifferent.  Once I told them about the elevators the employee was again indifferent.  Also no lighting in the stairwells and I was on the 3rd floor.</t>
   </si>
   <si>
+    <t>Nathan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r583353245-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -345,6 +378,9 @@
     <t>I can’t say enough great things about this hotel. I stayed there this past weekend. It was one of the best times of my life. I had a great stay. I have stayed at plenty of hotels in my life. This is by far one of the best times. The rooms were clean. The staff was very friendly. They made me feel like family. Not just a guest. I would recommend this hotel to anyone. I will definitely be staying here again when I need to. Please when you get a chance, stay at this hotel. If you want to experience what an excellent hotel looks like. This is the one. Thank you La Quinta. You’re the best.More</t>
   </si>
   <si>
+    <t>Tim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r580039981-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -360,6 +396,9 @@
     <t>This LaQuinta Inn and Suites was beautiful and very comfortable!  We would like to come back to this property on another visit. The staff was nice and helpful  We had a group of 32 people, counting me (Tour Guide) and the bus charter driver.  Thank you for a super stay!!</t>
   </si>
   <si>
+    <t>GlobetrotterBella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r575145509-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -384,6 +423,9 @@
     <t>Pros: CleanSpaciousFairly newAmple parkingClose to Verizon theaterCons: Pillows are too smallCheck in was fast and easy. I do wish staff would give breakfast and check out info at check in. The room: clean with ample room. The bed was comfortable. The pillows were too small, but there were enough on the bed to make up for it. There’s a mini fridge, coffee maker and a microwave in the room. The AC worked well. The bathroom: spacious with appropriate vanity space. Toiletries offered included shampoo, conditioner, soap. The shower pressure was good and hot water was always available. The pool looked nice. We didn’t use it. Breakfast was good. They have the usual continental breakfast choices plus hot eggs, bacon, potatoes. My favorite were the biscuits. They even had white gravy for biscuits and gravy.  The hotel is about 5 minutes away from the Verizon theater. Unfortunately, there’s not much else around to keep yourself entertained. They offer transport to the Verizon for $15 per person. It’s cheaper to ride share or even park at the venueMore</t>
   </si>
   <si>
+    <t>judithf551</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r573003359-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -399,6 +441,9 @@
     <t>Great place to stay. It is close to Lone Star Park, Six Flags, Ranger Stadium, and Cowboy Stadium. It is always clean and comfortable as well as convenient! We come to Lone Star Park several times during racing season, and we always stay here. The staff is friendly, and the fitness center is a real plus!</t>
   </si>
   <si>
+    <t>jameshT1535RT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r572580036-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -417,6 +462,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Amir7095</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r567746040-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -432,6 +480,9 @@
     <t>La Quinta has not been a choice before but the location and new build feature of this location paid off. The staff were great. The room was fresh and clean with a fantastic king bed and well sized sofa bed which together was enough for the four of us. Bathroom was a bit tight but being so clean and a spacious shower made up for it. Free wi-fi a plus and of course the free breakfast. Fresh waffles were a hit! Would stay again.</t>
   </si>
   <si>
+    <t>A9889DEericg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r566401497-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -447,6 +498,9 @@
     <t>This was our fourth year to attend the American Rodeo in Arlington. This hotel was by far the best we have ever stayed in while in Arlington /Ft.Worth area. liked it because it was off the beaten path.</t>
   </si>
   <si>
+    <t>Andrew P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r566198877-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -462,6 +516,9 @@
     <t>This LaQuinta looks and feels brand new. The room is huge and updated. Everything is spotless clean and fresh. It was super quiet. Not a single problem. The breakfast was hot and tasty. Do watch for the driveway, it is a little off the main way. Stay here!!!</t>
   </si>
   <si>
+    <t>dale827</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r563281661-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -474,6 +531,9 @@
     <t>Hotel is very clean and the staff is very helpful.  Hotel is located in the heart of the Metroplex.  Easy to get to Dallas, Fort Worth, Arlington, Irving or DFW  Airport.  Six Flags, Globe Park, AT&amp;T Stadium or Lone Stark Park are minutes away.</t>
   </si>
   <si>
+    <t>N7659TIcharlesl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r561398097-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -489,6 +549,9 @@
     <t>My ADA room was a king and sofa bed.  The sofa bed was so comfortable, I didn't unfold it.  Best night's sleep I've had in some time.  Would like to take the sofa bed home with me!  Wife and Daughter said the king was great also!</t>
   </si>
   <si>
+    <t>JoSamD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r560751584-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -504,6 +567,9 @@
     <t>We stayed at the hotel when in town to see Little Big Town &amp; Midland in concert at the Verizon Theatre.   The location is very convenient to the Verizon Theatre.   Plus we were able to sign up in the hotel lobby for a ride to the Verizon for $15 per person. The hotel staff were welcoming &amp; helpful. Our room was nice &amp; clean. We will definitely return!</t>
   </si>
   <si>
+    <t>johnbP5956IE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r559520608-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -525,6 +591,9 @@
     <t>Excellent for my business trips - easy location to get into and out of, near the highway but not close enough to hear the noise, desk to work at with enough outlets for all the gadgets. Will stay here again.More</t>
   </si>
   <si>
+    <t>Amanda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r557909372-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -552,6 +621,9 @@
     <t>If you get put in room 204 ask to be moved. The walls are paper thin and the guest laundry room is right next door. We were up all night and I requested my money back and only after log negotiations they gave me half my money back. We didn’t sleep and customer service was terrible! More</t>
   </si>
   <si>
+    <t>K6515MSgregd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r554952096-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -570,6 +642,9 @@
     <t>Great place to stay. staff was very professional hotel rooms were nice, and clean.  Good location for the hotel plenty of restaurants close by.  The staff was very helpful and accommodating for any of my needs. More</t>
   </si>
   <si>
+    <t>David Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r552583854-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>Though the staff were friendly and our room clean, 2 out of the 3 nights I was awake until 4-5 am by 2 different rooms of partiers. The breakfast, though included in the cost was average at best and the lines were always long and slow, especially with the waffle maker.  I would pay extra money in the future for a hotel where quietness gives me the relaxation im looking for. More</t>
   </si>
   <si>
+    <t>Allen3172014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r550654564-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -615,6 +693,9 @@
     <t>New contemporary style hotel within minutes of AT&amp;T Stadium. Loved the Texas shaped waffles. Easy to access off I-30. The room was spacious and very clean. The complementary breakfast had choices for everyone and had a large seating area separate from the food.More</t>
   </si>
   <si>
+    <t>694calvinf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r549000580-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -630,6 +711,9 @@
     <t>The bed is not very "pillowtop",but it wasnt too bad. The fact they left a dead kitten in the parking lot was kind of inhuman but overall the hotel was a very nice place. Ive had lots of hotels to compare and it comes out ahead of most I've stayed in.</t>
   </si>
   <si>
+    <t>Nick H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r545915813-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -645,6 +729,9 @@
     <t xml:space="preserve">We had a great experience and the staff was friendly. We were greeted with a smile when we walked in and when we walked out. Our room was clean as was our bathroom. The breakfast was top notch and that is with us eating with 30 minutes left of them serving breakfast. </t>
   </si>
   <si>
+    <t>nancyrC7491VY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r544541283-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -666,6 +753,9 @@
     <t>My son and I ventured to Grand Prairie Texas where we stayed at La Quinta Dallas Inns &amp; Suite. The hotel was recommended by Texas Allbreed Dog Grooming School-- where he plans to attend their program in the summer. We arrived around 11 at night and were greeted by a friendly staff. The bed was soft and comfortable and we went to bed. I was hoping to wash my laundry, but I failed to bring quarters-- none were available at the counter. Opps! Breakfast was good and had many choices, although not much if you're vegan or vegetarian--my children though enjoyed the breakfast. I do recommend this hotel to anyone who has a trip to these pleasant city.More</t>
   </si>
   <si>
+    <t>T9880XXamandae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r544153112-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -681,6 +771,9 @@
     <t>The new colors of he décor at the LaQuinta were very appealing and comfortable. They had a warm feel and was like a home away from home  with the modern plugs and conveniences of home. Would definitely stay here (or at any upgraded LaQuinta) in the future.</t>
   </si>
   <si>
+    <t>406olinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r542838121-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -696,6 +789,9 @@
     <t>Great room Good service. A bit pricey but that is going to happen anytime the Cowboys play.  The best part was we were able to get a shuttle to and from the AT&amp;T Stadium for $25 a person. It was well worth it!</t>
   </si>
   <si>
+    <t>235ceem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r540385622-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -729,6 +825,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>469crystalt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r535659150-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -744,6 +843,9 @@
     <t>Beautiful new hotel that is well kept. The fresh color and décor are inviting and provided an upbeat tone to our two day business meeting. The rooms were well maintained and very quiet. The breakfast was great and fresh coffee was available throughout the day. The front desk staff was helpful and always available.</t>
   </si>
   <si>
+    <t>AlexisLAdams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r534204154-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -762,6 +864,9 @@
     <t>I recently visited this hotel for a few nights while in town. I normally stay at all Quinta’s and have grown accustom to how their hotels work but this one I was really shocked. I loved, loved, LOVED the room I received, moreso the bathroom. The beds were very comfortable but I fell in love with the bathroom. I didn’t have a bathtub but I had an all glass shower which seemed very unique. Any other La Quinta I’ve stayed in didn’t have this. I didn’t get to see the pool area but I’m okay with that, it looked lovely however. The staff was very nice! I had the most interaction which a young gentleman( I don’t remember his name) but he was amazing! He was very fast and efficient and a great face for this hotel.More</t>
   </si>
   <si>
+    <t>ymckgm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r533161955-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -789,6 +894,9 @@
     <t>The hotel is new and clean with a great service from the desk clerks and housekeeping.  Do not stay here if you want your vehicle damaged while parked in their lot.  My vehicle received $1000 worth of damage &amp; management wasn't the least bit concerned.  I will not stay here again!More</t>
   </si>
   <si>
+    <t>38toddf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r531460030-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -801,6 +909,9 @@
     <t xml:space="preserve">The hotel was excellent and extremely clean. Very impressed!  The staff were very nice and friendly! We will stay here again. It was easy access off the highway. Not really any restaurants close to the hotel but not to far away and they were easy to access from the highway. </t>
   </si>
   <si>
+    <t>charleslivb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r531585396-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -813,6 +924,9 @@
     <t>Highly enjoyed staying at this hotel! Would def recommend staying here. Great food, friendly staff, and the gym for a hotel was surprisingly nice. Parking lot was well lit, rooms were super clean, nice big shower (perfect for some extra fun).</t>
   </si>
   <si>
+    <t>troy f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r531233921-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -828,6 +942,9 @@
     <t xml:space="preserve">Overall the place was very nice and convenient, rooms were nice with good amenities, free breakfast was nice with eggs, sausage and waffles plus other goodies the works thing about this place is the shower on room 215 was horrible with no pressure and barely any water coming out. </t>
   </si>
   <si>
+    <t>lindseymM9152VH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r525908791-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -846,6 +963,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>g3times</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r512014213-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -867,6 +987,9 @@
     <t>We stayed here after a concert at the Verizon Theater a short distance away. We stay at La Quintas quite often since they are usually very nice and are pet friendly. This is a newer hotel with excellent personnel. I only have 2 minor complaints. One is the parking. The parking lot seems quite small. The other complaint is the snack bar. It is very well stocked. It probably stays well stocked because I can't see how anybody n their right mind would pay the prices they charge! After the concert, we came through the front door and decided to grab a snack. $3 for a regular size bag of M &amp; Ms and $9 ( YES, NINE DOLLARS!) for a 3 oz bag of CheezIts! Good grief! We told the clerk, he could keep them. He said "That's what I thought you'd say". Ridiculous. Had we known they were that expensive, we would have stopped at the QT store just up the road. Otherwise, this is a great place to stay. But, be sure to pass on the incredibly overpriced snacks.More</t>
   </si>
   <si>
+    <t>Terry A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r510801887-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -882,6 +1005,9 @@
     <t>Great rooms, fairly new hotel. A little hard to get to, but well worth it. Great breakfast, comfortable rooms. Two complaints I might have is that the toilet paper roll holder was in a place that you had to be part of Cirque du Soleil to reach it when on the toilet. Also, it was hard to figure out how to turn on the bathroom light without turning on the hallway light. Took many iterations of playing with light switches to finally figure it out.This place is a gem.</t>
   </si>
   <si>
+    <t>A M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r510243680-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1023,9 @@
     <t>We had a king bed suite and it was absolutely wonderful. Having the extra room to spread out, enjoying the very comfortable bed and pillows, great shower and towels -- everything about the room was a real treat. Breakfast was delicious but could have been cleaned up/taken care of better. We enjoyed the pool and hot pool. Wonderful stay and we would return in a heartbeat.  Very convenient for our travels to both Fort Worth and Dallas, right off the highway.</t>
   </si>
   <si>
+    <t>R3077CPbrianr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r509539393-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1038,9 @@
     <t>Great place to stay! I was there on business and needed close access to the Arlington Convention Center. There was a Whataburger nearby, and it was right next to Ripley's and the Wax Museum. Easy on and off access.</t>
   </si>
   <si>
+    <t>Jeffrey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r507983818-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1056,9 @@
     <t>Overnight business trip to TX.  Stayed here because of closeness to workplace.  Nice hotel.  It's clean and new.  Good breakfast of the usual foods.  Outdoor pool.  Access from freeway is a bit tricky.  Use your GPS.  Freeway noise is minimal.  I'd stay there again.</t>
   </si>
   <si>
+    <t>SiskFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r503269705-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1077,9 @@
     <t>Hotel is fresh, clean, beautiful - you name it!  The Hotel itself is beautiful and very modern.  The pool and hot tub were nice and my girls loved the fancy color changing lights at night.  Breakfast was good and plentiful and there was ample room to sit.The hotel is right next to Ripley's/ Wax Museum which is a BONUS.  Six Flags and Hurricane Harbor are literally just a few miles away.As long as they keep it up and the guest are respectful, this will be our new "Go To" place when we visit the Dallas area.  All in all 5 Star in my opinion.  My only regret is that we had to check out and come home. :(More</t>
   </si>
   <si>
+    <t>tiapierson2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r501757521-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1095,9 @@
     <t xml:space="preserve">Nice quiet stay. No issues. The bathroom was clean and. The carpet was clean enough that I put my 7 month old down to crawl around. The outside of the building was beautiful. Unlike any other Laquinta. There was a clean pool are for my kiddos. The hotel is located right next to Ripley's Believe It or Not. Will definitely stay here again. </t>
   </si>
   <si>
+    <t>Kyndall S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r500840109-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1113,9 @@
     <t xml:space="preserve">We stayed here to be close to a ball game we had early the next morning. Although we got in late &amp; left early-it was a great experience! Welcoming front desk, clean room &amp; the staff was friendly to our puppy. </t>
   </si>
   <si>
+    <t>Ladibuggs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r497754765-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1129,9 @@
   </si>
   <si>
     <t xml:space="preserve">We travel a lot for our boys baseball team, most of the time our sweet goldendoodle has to travel with us and it is so nice that we can find nice clean updated La Quinta that still allows pets. Thank you LQ Grand Prairie North! We enjoyed our stay! </t>
+  </si>
+  <si>
+    <t>Charlsi R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r497308630-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
@@ -1016,6 +1163,9 @@
 This hotel is really nice inside. The lobby and our room looked great and you could tell this was a newer hotel. We were quickly checked in and our room was great. That night we went out for dinner and returned around 9:30 pm. We had to park on the side of the hotel because the front was full. We were going to enter through the side door but there was a couple fighting and a woman had pushed their luggage cart to the door blocking it and fell to the ground. We quickly walked to the front to alert the front desk and when we got inside we could see the man kicking the woman who was still on the ground from down the hallway through the side door.. The man at the front desk and another guest staying at the hotel ran to check on the situation and returned to call the police. The woman wanted him to call the police and she also later stated that her boyfriend had pulled a gun on her. I did notice cameras outside the building but apparently the front desk cannot see and monitor the doors because if we wouldn't have...First off, we are loyal members of La Quinta. Anytime we travel we stay at La Quintas because they are pet friendly and we always travel with our dog so it is really disappointing having to write a negative review. This hotel is really nice inside. The lobby and our room looked great and you could tell this was a newer hotel. We were quickly checked in and our room was great. That night we went out for dinner and returned around 9:30 pm. We had to park on the side of the hotel because the front was full. We were going to enter through the side door but there was a couple fighting and a woman had pushed their luggage cart to the door blocking it and fell to the ground. We quickly walked to the front to alert the front desk and when we got inside we could see the man kicking the woman who was still on the ground from down the hallway through the side door.. The man at the front desk and another guest staying at the hotel ran to check on the situation and returned to call the police. The woman wanted him to call the police and she also later stated that her boyfriend had pulled a gun on her. I did notice cameras outside the building but apparently the front desk cannot see and monitor the doors because if we wouldn't have seen this happening nobody would've known and the situation could've ended very badly.The man drove away and left the hotel while the front desk clerk was still talking to the police. The front desk clerk said we could head up to our room and didn't need to talk to the police. This was our first night and put a damper on our entire trip. We were very shaken and upset by the situation and felt uncomfortable and unsafe the rest of our stay. We thought about leaving but we had our dog with us and knew we wouldn't be able to check in to another hotel until 3 pm the next day so we decided to stay and just not leave the hotel after dark which was unfortunate because we had planned to go out to dinner all three nights, but we just had dinner delivered to us. I also had to call down to see if everything was okay, (they didn't call us), and the front desk told me that the lady would be leaving and the police had the man in custody. I thought that we would possibly be refunded for that night or for our entire stay, but he didn't say anything about it. Another problem I had with this hotel was location. I wasn't aware when I booked it that it is right next to a Super 8 motel and a motel 6 extended stay and they both looked old and run down. On the second night of our stay my husband took our dog down to use the restroom and he said there was a man sitting on the curb right outside the door by the elevators slouched over and he appeared to be drunk or high. This also worried us even more because of the incident the previous night. We were disappointed and our trip could've been much better if these incidents hadn't occurred.More</t>
   </si>
   <si>
+    <t>FoodFunBeer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r454345108-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1187,9 @@
     <t>I found this hotel on the internet. I believe I booked it through Expedia. I needed the whole weekend from Friday until Monday. The Dallas Cowboys playoff game was this weekend and the hotels in the area were charging a lot. This hotel was only about 5 miles from  AT&amp;T stadium and I got for about $300.00 total, for the weekend. The Hotel is almost new. I think they said it opened a few months ago. Great staff, beautiful rooms, easy parking, and close to everything. The hot breakfast in the morning was free and delicious. Highly recommended. I should keep this as a secret in case I need to go back again, LOL.Also, they were doing shuttles to the stadium for only $25. After my parking fiasco at the stadium, I wish I would have used their shuttle. Now I know.More</t>
   </si>
   <si>
+    <t>Courtney W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r454136066-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1205,9 @@
     <t xml:space="preserve">Nice hotel. Modern and clean. It was a pretty new hotel. Gave us a military discount. Pool and hot tub looked nice but we didn't us. A nice variety for breakfast. Followed through on request that we wanted. </t>
   </si>
   <si>
+    <t>Glen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r485519843-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1223,9 @@
     <t>Very modern appearance to lobby and rooms. Very clean and comfortable hotel, very reasonably priced. Easily accessible from I-30, but no restaurants close to hotel. Nice breakfast and a good size workout facility.</t>
   </si>
   <si>
+    <t>Tirzah D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r448687961-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1239,9 @@
   </si>
   <si>
     <t>Boy, I loved this hotel. It was so modern and classy on the inside. The outside was really nice too. Our room was better than a lot of other hotels I had been to before. There was a fridge and coffee maker in our room. The bed was cozy. The walls were kind of thin so we could hear noise from other rooms. We didn't wake up earlier enough to try the breakfast but it was offered until 10 on the weekends.</t>
+  </si>
+  <si>
+    <t>LVC_Humble</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10687513-r485518861-La_Quinta_Inn_Suites_Dallas_Grand_Prairie_North-Grand_Prairie_Texas.html</t>
@@ -1602,43 +1764,47 @@
       <c r="A2" t="n">
         <v>65262</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>163864</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1662,50 +1828,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65262</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1729,50 +1899,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65262</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>163865</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1796,50 +1970,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65262</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>163866</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1863,50 +2041,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65262</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>163867</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1930,50 +2112,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65262</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>35028</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>80</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>81</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" t="s">
-        <v>76</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1997,50 +2183,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65262</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>163868</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2064,50 +2254,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65262</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>163869</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2131,50 +2325,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65262</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>21809</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2198,50 +2396,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65262</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>163870</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2265,50 +2467,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65262</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>17312</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2322,50 +2528,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65262</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>9856</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2389,50 +2599,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65262</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>163871</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2446,50 +2660,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65262</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>163872</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2513,50 +2731,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65262</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>163873</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2580,50 +2802,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65262</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>163874</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2643,50 +2869,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65262</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>163875</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2710,50 +2940,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65262</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>37742</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>147</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>132</v>
-      </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2777,50 +3011,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65262</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>163876</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2844,50 +3082,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65262</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>163877</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2911,50 +3153,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65262</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>163878</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O22" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2968,50 +3214,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65262</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>163879</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3033,56 +3283,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="X23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Y23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65262</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3454</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3104,56 +3358,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="X24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="Y24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65262</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>163880</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3175,56 +3433,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="X25" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65262</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>21832</v>
+      </c>
+      <c r="C26" t="s">
+        <v>208</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3246,56 +3508,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="X26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65262</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>163881</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3317,56 +3583,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="X27" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Y27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65262</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>163882</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3390,50 +3660,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65262</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>49994</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3457,50 +3731,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65262</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>163883</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3524,50 +3802,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65262</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>163884</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3591,50 +3873,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65262</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>163885</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3658,50 +3944,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65262</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>163886</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3725,50 +4015,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65262</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3792,50 +4086,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65262</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>163887</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3859,50 +4157,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65262</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>163888</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3916,50 +4218,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65262</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>163889</v>
+      </c>
+      <c r="C37" t="s">
+        <v>282</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3977,56 +4283,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="X37" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="Y37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65262</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>163890</v>
+      </c>
+      <c r="C38" t="s">
+        <v>292</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4050,50 +4360,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65262</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>163891</v>
+      </c>
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="K39" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4117,41 +4431,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65262</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>163892</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -4170,50 +4488,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65262</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>163893</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4237,50 +4559,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65262</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>163894</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="J42" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4300,50 +4626,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65262</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>54160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4363,50 +4693,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65262</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>10228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>329</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>288</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
-        <v>289</v>
-      </c>
-      <c r="J44" t="s">
-        <v>290</v>
-      </c>
-      <c r="K44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L44" t="s">
-        <v>292</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>253</v>
-      </c>
       <c r="O44" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4424,50 +4758,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65262</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>163895</v>
+      </c>
+      <c r="C45" t="s">
+        <v>335</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="J45" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4491,50 +4829,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65262</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7461</v>
+      </c>
+      <c r="C46" t="s">
+        <v>340</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="J46" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="K46" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4558,50 +4900,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65262</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>142142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>346</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="J47" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="K47" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4621,50 +4967,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65262</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>163896</v>
+      </c>
+      <c r="C48" t="s">
+        <v>353</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="J48" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="K48" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4678,50 +5028,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65262</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>163897</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="J49" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4745,50 +5099,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65262</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>163898</v>
+      </c>
+      <c r="C50" t="s">
+        <v>365</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4802,50 +5160,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65262</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>163899</v>
+      </c>
+      <c r="C51" t="s">
+        <v>371</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="J51" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4863,56 +5225,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="X51" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="Y51" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65262</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>163900</v>
+      </c>
+      <c r="C52" t="s">
+        <v>381</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="J52" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4932,50 +5298,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65262</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>2344</v>
+      </c>
+      <c r="C53" t="s">
+        <v>389</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="J53" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -4989,50 +5359,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65262</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>83539</v>
+      </c>
+      <c r="C54" t="s">
+        <v>395</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="J54" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="K54" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5056,50 +5430,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65262</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>163901</v>
+      </c>
+      <c r="C55" t="s">
+        <v>401</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="J55" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="O55" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5113,50 +5491,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65262</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>163902</v>
+      </c>
+      <c r="C56" t="s">
+        <v>407</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="J56" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="K56" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5180,7 +5562,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
